--- a/doc/Dokumentation.xlsx
+++ b/doc/Dokumentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="149">
   <si>
     <t>Interface</t>
   </si>
@@ -868,20 +868,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1"/>
-    <col min="4" max="4" width="11.44140625" style="4"/>
-    <col min="5" max="6" width="11.44140625" style="1"/>
-    <col min="7" max="7" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -978,6 +978,12 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:10">
@@ -986,6 +992,12 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2366,12 +2378,12 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2501,18 +2513,18 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="14"/>
+    <col min="1" max="1" width="17.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="14"/>
     <col min="3" max="4" width="18" style="14" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="13"/>
-    <col min="7" max="7" width="11.5546875" style="12"/>
+    <col min="5" max="5" width="32.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="13"/>
+    <col min="7" max="7" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1">
@@ -3682,17 +3694,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="20"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="20"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4000,10 +4012,10 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/doc/Dokumentation.xlsx
+++ b/doc/Dokumentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="149">
   <si>
     <t>Interface</t>
   </si>
@@ -868,20 +868,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="11.42578125" style="4"/>
-    <col min="5" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="11.44140625" style="4"/>
+    <col min="5" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -978,12 +978,6 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:10">
@@ -992,12 +986,6 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2378,12 +2366,12 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2513,18 +2501,18 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="14"/>
+    <col min="1" max="1" width="17.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="14"/>
     <col min="3" max="4" width="18" style="14" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="13"/>
-    <col min="7" max="7" width="11.5703125" style="12"/>
+    <col min="5" max="5" width="32.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="13"/>
+    <col min="7" max="7" width="11.5546875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1">
@@ -3694,17 +3682,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="20"/>
-    <col min="7" max="16384" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="11.5546875" style="20"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4012,10 +4000,10 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/doc/Dokumentation.xlsx
+++ b/doc/Dokumentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="149">
   <si>
     <t>Interface</t>
   </si>
@@ -868,20 +868,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1"/>
-    <col min="4" max="4" width="11.44140625" style="4"/>
-    <col min="5" max="6" width="11.44140625" style="1"/>
-    <col min="7" max="7" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -978,6 +978,12 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:10">
@@ -986,6 +992,12 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2366,12 +2378,12 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2505,14 +2517,14 @@
       <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="14"/>
+    <col min="1" max="1" width="17.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="14"/>
     <col min="3" max="4" width="18" style="14" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="13"/>
-    <col min="7" max="7" width="11.5546875" style="12"/>
+    <col min="5" max="5" width="32.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="13"/>
+    <col min="7" max="7" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1">
@@ -3682,17 +3694,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="20"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="20"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4000,10 +4012,10 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/doc/Dokumentation.xlsx
+++ b/doc/Dokumentation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,18 +16,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Befehlswerte!$A$1:$E$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Fehler!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Interfaces!$A$1:$E$138</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Kabelbelegungen!$A$1:$G$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Interfaces!$A$1:$E$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Kabelbelegungen!$A$1:$G$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Teile!$A$1:$D$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Interfaces!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Teile!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="151">
   <si>
     <t>Interface</t>
   </si>
@@ -182,9 +182,6 @@
     <t>IF-38508</t>
   </si>
   <si>
-    <t>IF-38510</t>
-  </si>
-  <si>
     <t>O1</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>HRL</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>1(rot)</t>
   </si>
   <si>
@@ -362,12 +356,6 @@
     <t>o1 --&gt; I8 IF1</t>
   </si>
   <si>
-    <t>(o3 --&gt; I8 IF2)</t>
-  </si>
-  <si>
-    <t>i2 --&gt; o8 IF2)</t>
-  </si>
-  <si>
     <t>Kommunikation von TXT zu TX</t>
   </si>
   <si>
@@ -474,13 +462,31 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Motor X-Achse</t>
+  </si>
+  <si>
+    <t>Impuls X-Achse</t>
+  </si>
+  <si>
+    <t>Impuls Y-Achse</t>
+  </si>
+  <si>
+    <t>Endanschlag X-Achse</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,13 +584,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,9 +636,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,9 +670,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,9 +705,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -865,15 +881,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -884,7 +900,7 @@
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -906,7 +922,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -917,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="6"/>
@@ -926,9 +942,9 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -937,11 +953,11 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -952,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -967,11 +983,11 @@
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -982,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -997,43 +1013,43 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -1043,9 +1059,9 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1055,9 +1071,9 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -1067,45 +1083,45 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1114,23 +1130,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>33</v>
@@ -1139,9 +1153,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>34</v>
@@ -1150,21 +1164,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>36</v>
@@ -1173,1192 +1187,1256 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C26" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E42" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>88</v>
+      <c r="B67" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>88</v>
+      <c r="B68" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>88</v>
+      <c r="B71" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>88</v>
+      <c r="B72" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>88</v>
+      <c r="B73" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B74" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C74" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B75" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="C75" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B76" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="C76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B77" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>113</v>
+      <c r="B78" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>88</v>
+      <c r="B79" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C80" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="E86" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="7"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="7"/>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="7"/>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="7"/>
-      <c r="C106" s="4"/>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="E106" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="C107" s="4"/>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="1:5">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="C108" s="4"/>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="1:5">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="C109" s="4"/>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="1:5">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="C110" s="4"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="C111" s="4"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="C112" s="4"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="C113" s="4"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="C114" s="4"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="C115" s="4"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="C116" s="4"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="C117" s="4"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="C118" s="4"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="C119" s="4"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="C120" s="4"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="C121" s="4"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="C122" s="4"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="C123" s="4"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="C124" s="4"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="C125" s="4"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="C126" s="4"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="C127" s="4"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="C128" s="4"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="C129" s="4"/>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="C130" s="4"/>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
-      <c r="C132" s="8"/>
+      <c r="C132" s="4"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="C133" s="8"/>
-      <c r="E133" s="5"/>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
-      <c r="C134" s="8"/>
-      <c r="E134" s="5"/>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="C135" s="8"/>
-      <c r="E135" s="5"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="C136" s="8"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="C137" s="8"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="C138" s="8"/>
       <c r="E138" s="5"/>
     </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
+      <c r="C139" s="8"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+      <c r="C140" s="8"/>
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="7"/>
+      <c r="C141" s="8"/>
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
+      <c r="C142" s="8"/>
+      <c r="E142" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E138">
-    <filterColumn colId="2"/>
-  </autoFilter>
-  <conditionalFormatting sqref="G80">
+  <autoFilter ref="A1:E142"/>
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f$E$2:$E$102=frei"</formula>
     </cfRule>
@@ -2370,15 +2448,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
@@ -2386,7 +2464,7 @@
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2400,103 +2478,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
     </row>
@@ -2509,15 +2587,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="14" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="14"/>
@@ -2527,18 +2605,18 @@
     <col min="7" max="7" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1">
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>48</v>
@@ -2550,9 +2628,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>44</v>
@@ -2560,16 +2638,16 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>44</v>
@@ -2577,16 +2655,16 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>44</v>
@@ -2595,19 +2673,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>44</v>
@@ -2615,23 +2693,19 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4">
         <f>F4+1</f>
         <v>4</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2643,13 +2717,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -2661,13 +2733,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -2679,13 +2749,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -2697,13 +2765,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -2715,13 +2781,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -2733,13 +2797,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -2751,13 +2813,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2769,13 +2829,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -2787,13 +2845,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -2805,13 +2861,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -2823,13 +2877,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -2841,13 +2893,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -2859,13 +2909,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2877,13 +2925,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -2895,13 +2941,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -2913,13 +2957,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -2931,13 +2973,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -2949,13 +2989,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2967,13 +3005,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2985,13 +3021,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -3003,13 +3037,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -3021,9 +3053,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>50</v>
@@ -3032,19 +3064,19 @@
         <v>7</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>43</v>
@@ -3053,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>6</v>
@@ -3063,9 +3095,9 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>44</v>
@@ -3074,19 +3106,19 @@
         <v>4</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="4">
         <v>3</v>
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>44</v>
@@ -3094,18 +3126,16 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F31" s="8">
         <v>4</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3118,9 +3148,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3133,9 +3163,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -3148,9 +3178,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3163,9 +3193,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3178,9 +3208,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -3193,99 +3223,102 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D38" s="15"/>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D39" s="15"/>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="F39" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="F41" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F42" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>46</v>
@@ -3295,326 +3328,312 @@
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F47" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F48" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="E50" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="E51" s="15" t="s">
-        <v>104</v>
+      <c r="E51" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="F51" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F52" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F53" s="8">
-        <v>16</v>
-      </c>
-      <c r="G53" s="18"/>
-    </row>
-    <row r="54" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F54" s="8">
-        <v>17</v>
-      </c>
-      <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>9</v>
+      <c r="C55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F55" s="8">
-        <v>18</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F57" s="4">
         <v>2</v>
       </c>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F58" s="4">
         <v>3</v>
       </c>
-      <c r="G58" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F59" s="8">
         <v>4</v>
       </c>
-      <c r="G59" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" s="8">
         <v>5</v>
       </c>
-      <c r="G60" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="F61" s="8">
         <v>6</v>
       </c>
@@ -3622,16 +3641,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="F62" s="8">
         <v>7</v>
       </c>
@@ -3639,9 +3655,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>47</v>
@@ -3653,9 +3669,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>47</v>
@@ -3667,9 +3683,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>47</v>
@@ -3682,8 +3698,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G55">
-    <filterColumn colId="4"/>
+  <autoFilter ref="A1:G65">
+    <sortState ref="A38:G55">
+      <sortCondition ref="C1:C65"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3691,14 +3709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11.5703125" style="1"/>
     <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
@@ -3707,74 +3725,74 @@
     <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="19">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="19">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
@@ -3783,24 +3801,24 @@
         <v>43</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="19">
         <v>11</v>
@@ -3809,22 +3827,22 @@
         <v>43</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B6" s="19">
         <v>14</v>
@@ -3833,24 +3851,24 @@
         <v>43</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" s="19">
         <v>17</v>
@@ -3859,15 +3877,15 @@
         <v>43</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="19">
         <v>20</v>
@@ -3876,135 +3894,133 @@
         <v>43</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="19"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="19"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="19"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="19"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="19"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="19"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="19"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="19"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="19"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E20">
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="A1:E20"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4012,38 +4028,38 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Dokumentation.xlsx
+++ b/doc/Dokumentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,6 @@
     <t>1-5</t>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
     <t>11-15</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>6-10</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
@@ -1195,7 +1195,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>9</v>
@@ -1209,7 +1209,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>9</v>
@@ -1223,7 +1223,7 @@
         <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>9</v>
@@ -1237,7 +1237,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>9</v>
@@ -1708,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>9</v>
@@ -1722,7 +1722,7 @@
         <v>37</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>9</v>
@@ -1736,7 +1736,7 @@
         <v>38</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>9</v>
@@ -1750,7 +1750,7 @@
         <v>38</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>9</v>
@@ -1761,7 +1761,7 @@
         <v>46</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -1776,7 +1776,7 @@
         <v>46</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -1881,7 +1881,7 @@
         <v>46</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>11</v>
@@ -1975,7 +1975,7 @@
         <v>46</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>39</v>
@@ -1987,7 +1987,7 @@
         <v>46</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>40</v>
@@ -3712,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3763,7 +3763,7 @@
         <v>135</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3784,10 +3784,10 @@
         <v>131</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3810,10 +3810,10 @@
         <v>132</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3834,10 +3834,10 @@
         <v>133</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3860,10 +3860,10 @@
         <v>134</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/doc/Dokumentation.xlsx
+++ b/doc/Dokumentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="1" r:id="rId1"/>
@@ -882,11 +882,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>45</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>45</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>45</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>45</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>45</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>45</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>45</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>45</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>45</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>45</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>45</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>45</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>45</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>45</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>45</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>45</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>45</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>46</v>
       </c>
@@ -1771,7 +1772,7 @@
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>46</v>
       </c>
@@ -1786,7 +1787,7 @@
       </c>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>46</v>
       </c>
@@ -1801,7 +1802,7 @@
       </c>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>46</v>
       </c>
@@ -1816,7 +1817,7 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>46</v>
       </c>
@@ -1831,7 +1832,7 @@
       </c>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +1847,7 @@
       </c>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>46</v>
       </c>
@@ -1861,7 +1862,7 @@
       </c>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>46</v>
       </c>
@@ -1876,7 +1877,7 @@
       </c>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>46</v>
       </c>
@@ -1888,7 +1889,7 @@
       </c>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>46</v>
       </c>
@@ -1900,7 +1901,7 @@
       </c>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>46</v>
       </c>
@@ -1912,7 +1913,7 @@
       </c>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>46</v>
       </c>
@@ -1924,7 +1925,7 @@
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>46</v>
       </c>
@@ -1936,7 +1937,7 @@
       </c>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>46</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>46</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>46</v>
       </c>
@@ -1970,7 +1971,7 @@
       </c>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>46</v>
       </c>
@@ -1982,7 +1983,7 @@
       </c>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +1995,7 @@
       </c>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>46</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>46</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>47</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>47</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>47</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>47</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>47</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>47</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>47</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>47</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>47</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>47</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>47</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>47</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>47</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>47</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>47</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>47</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>47</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>47</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>47</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>47</v>
       </c>
@@ -2260,182 +2261,189 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="C110" s="4"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="C111" s="4"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="C112" s="4"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="C113" s="4"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="C114" s="4"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="C115" s="4"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="C116" s="4"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="C117" s="4"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="C118" s="4"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="C119" s="4"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="C120" s="4"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="C121" s="4"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="C122" s="4"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="C123" s="4"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="C124" s="4"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="C125" s="4"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="C126" s="4"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="C127" s="4"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="C128" s="4"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="C129" s="4"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="C130" s="4"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="C131" s="4"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="C132" s="4"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="C136" s="8"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="C137" s="8"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="C138" s="8"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="C139" s="8"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="C140" s="8"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="C141" s="8"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="C142" s="8"/>
       <c r="E142" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E142"/>
+  <autoFilter ref="A1:E142">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EXT-109460"/>
+        <filter val="IF-38508"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"f$E$2:$E$102=frei"</formula>
@@ -3712,7 +3720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
